--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_0_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77169.60149959782</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77169.60149959782</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957470158.5098145</v>
+        <v>34305556.52862266</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9402.019833730412</v>
+        <v>701822.2501200187</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18795.63403402205</v>
+        <v>1403644.500240037</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28186.41632435359</v>
+        <v>2105466.750360057</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37779.77015155879</v>
+        <v>2806585.576829286</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47373.07093084622</v>
+        <v>3507704.403298514</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56966.42475805139</v>
+        <v>4208823.229767743</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66559.76683735957</v>
+        <v>4909942.056236967</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76153.06761664702</v>
+        <v>5611060.88270619</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85746.42144385222</v>
+        <v>6312179.709175415</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95339.72222313964</v>
+        <v>7013298.53564464</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104933.0760503448</v>
+        <v>7714417.362113865</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>114526.3768296323</v>
+        <v>8415536.188583095</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124119.7095546938</v>
+        <v>9116655.01505233</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>133713.0633818989</v>
+        <v>9817773.841521563</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>143306.4172091043</v>
+        <v>10518892.6679908</v>
       </c>
     </row>
   </sheetData>
